--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_10_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_10_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>575033.6290331241</v>
+        <v>616193.4538626068</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12334964.66071793</v>
+        <v>12355323.56147732</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6050313.272575866</v>
+        <v>7626792.428827739</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9740456.81947517</v>
+        <v>8976895.597561613</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>232.2791855053265</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -676,10 +676,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>78.16360657708299</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>13.65481934370028</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
     </row>
     <row r="3">
@@ -737,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>109.3170492634406</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>94.50081326185514</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.17372043046393</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -803,7 +803,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>96.93992267009018</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>152.9790308096764</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>108.0728512656386</v>
+        <v>63.27499344337884</v>
       </c>
       <c r="S4" t="n">
-        <v>197.1876907596159</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2350578157167</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>170.0316437883041</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>92.07720442932798</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -974,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.3343964518635</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>92.83156789269626</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
-        <v>134.3646350838588</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>192.0665623188214</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>185.7279068930175</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1068,16 +1068,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>130.2019176447209</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>196.9208377482274</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>92.07720442932798</v>
       </c>
       <c r="G8" t="n">
-        <v>213.6895597919026</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,28 +1211,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>135.3343964518635</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83156789269626</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,19 +1262,19 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3646350838588</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.0665623188214</v>
+        <v>109.3882658745777</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1341,25 +1341,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>245.7444771892273</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>103.3387326418235</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>234.136805112099</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1384,10 +1384,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H11" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T11" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>129.7713942061901</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>168.1311869300852</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1536,13 +1536,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>39.61408184881096</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>220.7486959972119</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1615,19 +1615,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9338715566937</v>
+        <v>249.3986506536338</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>42.04518470759558</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.464536558263</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9961436311612</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>212.1355699290428</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>135.0059677968616</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H15" t="n">
-        <v>89.65963851412518</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I15" t="n">
-        <v>8.915218264396657</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,13 +1736,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>128.264216864854</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T15" t="n">
-        <v>190.7427643629146</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7875959384519</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1770,13 +1770,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>63.1814922554092</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.8639731922165</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5722280944081</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2121353820159</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>136.7422396034686</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>113.9096336732671</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>359.9905538786596</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9338715566937</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.9961436311612</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1937,13 +1937,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>134.9994691657081</v>
+        <v>135.0059677968616</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.65963851412518</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>8.915218264396643</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414547</v>
+        <v>128.264216864854</v>
       </c>
       <c r="T18" t="n">
-        <v>190.7165703189231</v>
+        <v>190.7427643629146</v>
       </c>
       <c r="U18" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7875959384519</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2013,10 +2013,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2058,19 +2058,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2121353820159</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>32.3021822906863</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>209.1480822693392</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2083,25 +2083,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>155.8380202720393</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>410.9338715566937</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>42.04518470759558</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>109.464536558263</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9711388310543</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>210.5725111548956</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2174,13 +2174,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>134.9994691657081</v>
+        <v>135.0059677968616</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.65963851412518</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>8.915218264396657</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,16 +2207,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414547</v>
+        <v>128.264216864854</v>
       </c>
       <c r="T21" t="n">
-        <v>190.7165703189231</v>
+        <v>190.7427643629146</v>
       </c>
       <c r="U21" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7875959384519</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>60.76903089633826</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2253,7 +2253,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0312564930842</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>12.54991600780573</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2121353820159</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2317,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>309.2025643039257</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2380,13 +2380,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>341.8333241810089</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>163.6898441249713</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2487,10 +2487,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>18.26879610204007</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2563,13 +2563,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>334.9753613846887</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2611,19 +2611,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>113.1061620820469</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>170.394882317338</v>
       </c>
       <c r="C28" t="n">
-        <v>72.42081039547514</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>257.7716304668721</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>352.5069291089532</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2952,16 +2952,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
@@ -3006,16 +3006,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>249.8016791897709</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>50.48369769246474</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>61.29257748216965</v>
+        <v>65.72456219185311</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3040,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>410.9217256534534</v>
@@ -3049,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3094,7 +3094,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>166.3921087983756</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -3204,10 +3204,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>77.95264323204898</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>27.79970453610231</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>410.9217256534534</v>
@@ -3319,22 +3319,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>59.32996291532885</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>45.2808584968836</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.6898441249713</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>410.9217256534534</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3559,16 +3559,16 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>158.5419697125529</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>17.35112070699578</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>17.25588147840214</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>8.347871548094357</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>36.34690181272143</v>
       </c>
       <c r="C41" t="n">
-        <v>57.89934023899411</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3903,16 +3903,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>17.25588147840214</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>105.0095044431336</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
@@ -3957,7 +3957,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>85.95014028179168</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>118.2873351493185</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3991,13 +3991,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>203.9179701396201</v>
@@ -4045,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4134,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>70.77902249554273</v>
       </c>
       <c r="E46" t="n">
-        <v>83.85990871385386</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>798.6856643201877</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="C2" t="n">
-        <v>429.7231473797759</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D2" t="n">
-        <v>429.7231473797759</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E2" t="n">
-        <v>429.7231473797759</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F2" t="n">
-        <v>429.7231473797759</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G2" t="n">
-        <v>429.7231473797759</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H2" t="n">
-        <v>122.3223344947425</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I2" t="n">
-        <v>43.36919653809305</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>152.5078184301901</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
-        <v>366.8168396232717</v>
+        <v>142.2640879052547</v>
       </c>
       <c r="L2" t="n">
-        <v>669.5878927711865</v>
+        <v>294.5174947515909</v>
       </c>
       <c r="M2" t="n">
-        <v>1038.14846457873</v>
+        <v>495.5981834030606</v>
       </c>
       <c r="N2" t="n">
-        <v>1417.286540135166</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O2" t="n">
-        <v>1761.960612545596</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P2" t="n">
-        <v>2021.630958172446</v>
+        <v>1011.026904601763</v>
       </c>
       <c r="Q2" t="n">
-        <v>2168.459826904652</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R2" t="n">
-        <v>2168.459826904652</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>2036.325171642783</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>1826.151173794698</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U2" t="n">
-        <v>1572.544009457208</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V2" t="n">
-        <v>1558.751262645389</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W2" t="n">
-        <v>1558.751262645389</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="X2" t="n">
-        <v>1185.285504384309</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="Y2" t="n">
-        <v>1185.285504384309</v>
+        <v>522.1002068716687</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>782.3637009587545</v>
+        <v>131.5183722823837</v>
       </c>
       <c r="C3" t="n">
-        <v>607.9106716776275</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9106716776275</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6732166721721</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F3" t="n">
-        <v>302.138658699057</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G3" t="n">
-        <v>165.2626649141729</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H3" t="n">
-        <v>69.80729798300611</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I3" t="n">
-        <v>43.36919653809305</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>89.55356510562316</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>246.6448318504519</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L3" t="n">
-        <v>504.1959674104395</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M3" t="n">
-        <v>1032.424359285845</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N3" t="n">
-        <v>1569.118166444746</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O3" t="n">
-        <v>1860.477412699312</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P3" t="n">
-        <v>2074.985828260213</v>
+        <v>930.1763583891335</v>
       </c>
       <c r="Q3" t="n">
-        <v>2168.459826904652</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>2168.459826904652</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>2168.459826904652</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T3" t="n">
-        <v>1973.749505378628</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U3" t="n">
-        <v>1745.647915511893</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V3" t="n">
-        <v>1510.49580728015</v>
+        <v>801.367527981072</v>
       </c>
       <c r="W3" t="n">
-        <v>1256.258450551948</v>
+        <v>547.1301712528705</v>
       </c>
       <c r="X3" t="n">
-        <v>1158.339336743776</v>
+        <v>339.2786710473376</v>
       </c>
       <c r="Y3" t="n">
-        <v>950.5790379788225</v>
+        <v>131.5183722823837</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1026.887865792137</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C4" t="n">
-        <v>872.3635922470091</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D4" t="n">
-        <v>872.3635922470091</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E4" t="n">
-        <v>872.3635922470091</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F4" t="n">
-        <v>725.4736447490988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G4" t="n">
-        <v>725.4736447490988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H4" t="n">
-        <v>725.4736447490988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I4" t="n">
-        <v>725.4736447490988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J4" t="n">
-        <v>740.800757412748</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>895.8247485356761</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L4" t="n">
-        <v>1149.728518883894</v>
+        <v>316.708372655101</v>
       </c>
       <c r="M4" t="n">
-        <v>1427.823567875084</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N4" t="n">
-        <v>1704.740754596114</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O4" t="n">
-        <v>1944.502301363958</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P4" t="n">
-        <v>2126.139042482092</v>
+        <v>1048.360858816803</v>
       </c>
       <c r="Q4" t="n">
-        <v>2168.459826904652</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>2059.295330676734</v>
+        <v>990.9413852147328</v>
       </c>
       <c r="S4" t="n">
-        <v>1860.115845060961</v>
+        <v>990.9413852147328</v>
       </c>
       <c r="T4" t="n">
-        <v>1860.115845060961</v>
+        <v>990.9413852147328</v>
       </c>
       <c r="U4" t="n">
-        <v>1570.989524034984</v>
+        <v>990.9413852147328</v>
       </c>
       <c r="V4" t="n">
-        <v>1316.305035829098</v>
+        <v>736.256897008846</v>
       </c>
       <c r="W4" t="n">
-        <v>1026.887865792137</v>
+        <v>469.8792404416679</v>
       </c>
       <c r="X4" t="n">
-        <v>1026.887865792137</v>
+        <v>241.8896895436506</v>
       </c>
       <c r="Y4" t="n">
-        <v>1026.887865792137</v>
+        <v>21.09711040012049</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1116.060225937134</v>
+        <v>114.1043876014619</v>
       </c>
       <c r="C5" t="n">
-        <v>1116.060225937134</v>
+        <v>114.1043876014619</v>
       </c>
       <c r="D5" t="n">
-        <v>944.3110907974333</v>
+        <v>114.1043876014619</v>
       </c>
       <c r="E5" t="n">
-        <v>944.3110907974333</v>
+        <v>114.1043876014619</v>
       </c>
       <c r="F5" t="n">
-        <v>533.3251860078258</v>
+        <v>114.1043876014619</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>294.5174947515905</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>1011.026904601763</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.89447953245</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="U5" t="n">
-        <v>2228.89447953245</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="V5" t="n">
-        <v>2228.89447953245</v>
+        <v>380.4820441686398</v>
       </c>
       <c r="W5" t="n">
-        <v>1876.125824262336</v>
+        <v>114.1043876014619</v>
       </c>
       <c r="X5" t="n">
-        <v>1502.660066001256</v>
+        <v>114.1043876014619</v>
       </c>
       <c r="Y5" t="n">
-        <v>1502.660066001256</v>
+        <v>114.1043876014619</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966384</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155114</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542601</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488045</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756896</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G6" t="n">
-        <v>165.4432786182518</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>143.6627691908465</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>590.2049751143493</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L6" t="n">
-        <v>884.908532145821</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M6" t="n">
-        <v>1248.170551105041</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N6" t="n">
-        <v>1635.455679701986</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O6" t="n">
-        <v>1967.526114878148</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P6" t="n">
-        <v>2214.708848710445</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>2562.339328400155</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>2426.617474780096</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="T6" t="n">
-        <v>2232.610846175226</v>
+        <v>691.074259448092</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>462.9384134849055</v>
       </c>
       <c r="V6" t="n">
-        <v>1769.368633815395</v>
+        <v>275.3344671283221</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087193</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="Y6" t="n">
-        <v>1099.519478116707</v>
+        <v>21.09711040012049</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>473.8272960668249</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="C7" t="n">
-        <v>473.8272960668249</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="D7" t="n">
-        <v>473.8272960668249</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="E7" t="n">
-        <v>473.8272960668249</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="F7" t="n">
-        <v>473.8272960668249</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386097</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N7" t="n">
-        <v>1123.088724245823</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1048.360858816803</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="S7" t="n">
-        <v>1439.817372234359</v>
+        <v>794.5459033106864</v>
       </c>
       <c r="T7" t="n">
-        <v>1216.838891429094</v>
+        <v>569.0768670687007</v>
       </c>
       <c r="U7" t="n">
-        <v>1017.928954309672</v>
+        <v>302.6992105015228</v>
       </c>
       <c r="V7" t="n">
-        <v>763.2444661037855</v>
+        <v>302.6992105015228</v>
       </c>
       <c r="W7" t="n">
-        <v>473.8272960668249</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="X7" t="n">
-        <v>473.8272960668249</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="Y7" t="n">
-        <v>473.8272960668249</v>
+        <v>36.32155393434483</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1432.831501090108</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="C8" t="n">
-        <v>1063.868984149696</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="D8" t="n">
-        <v>1063.868984149696</v>
+        <v>380.4820441686398</v>
       </c>
       <c r="E8" t="n">
-        <v>678.0807315514517</v>
+        <v>114.1043876014619</v>
       </c>
       <c r="F8" t="n">
-        <v>267.0948267618441</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>49.28269087917573</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872913</v>
+        <v>294.5174947515903</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>1011.026904601763</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400155</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="W8" t="n">
-        <v>2209.570673130041</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="X8" t="n">
-        <v>2209.570673130041</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="Y8" t="n">
-        <v>1819.431341154229</v>
+        <v>646.8597007358178</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="F9" t="n">
-        <v>302.14468917569</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182524</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057898</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J9" t="n">
-        <v>114.5432626034348</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K9" t="n">
-        <v>299.2648838844848</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L9" t="n">
-        <v>593.9684409159566</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M9" t="n">
-        <v>957.2304598751768</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N9" t="n">
-        <v>1344.515588472122</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O9" t="n">
-        <v>1676.586023648284</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434119</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400155</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.617474780096</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610846175226</v>
+        <v>944.3623221529158</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>716.2264761897293</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368633815395</v>
+        <v>481.0743679579866</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>481.0743679579866</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>273.2228677524538</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519478116707</v>
+        <v>65.46256898749988</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>51.24678656800311</v>
+        <v>358.602653973024</v>
       </c>
       <c r="C10" t="n">
-        <v>51.24678656800311</v>
+        <v>189.666471045117</v>
       </c>
       <c r="D10" t="n">
-        <v>51.24678656800311</v>
+        <v>189.666471045117</v>
       </c>
       <c r="E10" t="n">
-        <v>51.24678656800311</v>
+        <v>189.666471045117</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800311</v>
+        <v>189.666471045117</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312202</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M10" t="n">
-        <v>824.219460709659</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N10" t="n">
-        <v>1123.088724245823</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1048.360858816803</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074498</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074498</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S10" t="n">
-        <v>1439.817372234359</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T10" t="n">
-        <v>1216.838891429094</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U10" t="n">
-        <v>927.720553932932</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V10" t="n">
-        <v>673.0360657270452</v>
+        <v>806.6287753704416</v>
       </c>
       <c r="W10" t="n">
-        <v>383.6188956900846</v>
+        <v>540.2511188032637</v>
       </c>
       <c r="X10" t="n">
-        <v>155.6293447920672</v>
+        <v>540.2511188032637</v>
       </c>
       <c r="Y10" t="n">
-        <v>51.24678656800311</v>
+        <v>540.2511188032637</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1152.080087958285</v>
+        <v>1500.227517577121</v>
       </c>
       <c r="C11" t="n">
-        <v>1152.080087958285</v>
+        <v>1500.227517577121</v>
       </c>
       <c r="D11" t="n">
-        <v>1152.080087958285</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="E11" t="n">
-        <v>766.2918353600404</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F11" t="n">
-        <v>355.3059305704328</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G11" t="n">
-        <v>355.3059305704328</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H11" t="n">
         <v>51.24678656800311</v>
@@ -5068,25 +5068,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S11" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T11" t="n">
-        <v>2353.59368700598</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U11" t="n">
-        <v>2222.511470636091</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V11" t="n">
-        <v>1891.44858329252</v>
+        <v>1852.996172847235</v>
       </c>
       <c r="W11" t="n">
-        <v>1538.679928022406</v>
+        <v>1500.227517577121</v>
       </c>
       <c r="X11" t="n">
-        <v>1538.679928022406</v>
+        <v>1500.227517577121</v>
       </c>
       <c r="Y11" t="n">
-        <v>1538.679928022406</v>
+        <v>1500.227517577121</v>
       </c>
     </row>
     <row r="12">
@@ -5102,46 +5102,46 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D12" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E12" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F12" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G12" t="n">
-        <v>165.4432786182517</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H12" t="n">
-        <v>71.67401812057869</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I12" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J12" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K12" t="n">
-        <v>614.543024838023</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L12" t="n">
-        <v>909.2465818694948</v>
+        <v>1092.885047004312</v>
       </c>
       <c r="M12" t="n">
-        <v>1272.508600828715</v>
+        <v>1456.147065963532</v>
       </c>
       <c r="N12" t="n">
-        <v>1659.79372942566</v>
+        <v>1843.432194560478</v>
       </c>
       <c r="O12" t="n">
-        <v>1991.864164601822</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P12" t="n">
-        <v>2239.046898434119</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q12" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R12" t="n">
         <v>2562.339328400155</v>
@@ -5153,7 +5153,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U12" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V12" t="n">
         <v>1769.368633815395</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>410.3138329979538</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C13" t="n">
-        <v>241.3776500700469</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D13" t="n">
-        <v>91.26101065771115</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E13" t="n">
-        <v>91.26101065771115</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F13" t="n">
-        <v>91.26101065771115</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G13" t="n">
         <v>51.24678656800311</v>
@@ -5226,25 +5226,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S13" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T13" t="n">
-        <v>1216.838891429094</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U13" t="n">
-        <v>927.7205539329318</v>
+        <v>1124.349301773071</v>
       </c>
       <c r="V13" t="n">
-        <v>927.7205539329318</v>
+        <v>1124.349301773071</v>
       </c>
       <c r="W13" t="n">
-        <v>638.3033838959711</v>
+        <v>834.93213173611</v>
       </c>
       <c r="X13" t="n">
-        <v>410.3138329979538</v>
+        <v>834.93213173611</v>
       </c>
       <c r="Y13" t="n">
-        <v>410.3138329979538</v>
+        <v>834.93213173611</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1661.98464417345</v>
+        <v>1416.181083656474</v>
       </c>
       <c r="C14" t="n">
-        <v>1293.022127233038</v>
+        <v>1047.218566716062</v>
       </c>
       <c r="D14" t="n">
-        <v>934.756428626288</v>
+        <v>688.9528681093118</v>
       </c>
       <c r="E14" t="n">
-        <v>934.756428626288</v>
+        <v>303.1646155110676</v>
       </c>
       <c r="F14" t="n">
-        <v>523.7705238366804</v>
+        <v>303.1646155110676</v>
       </c>
       <c r="G14" t="n">
-        <v>108.6858050925453</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="H14" t="n">
-        <v>108.6858050925453</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="I14" t="n">
-        <v>66.21592154951942</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="J14" t="n">
-        <v>254.0744928369593</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K14" t="n">
-        <v>586.364312131902</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L14" t="n">
-        <v>1035.500977900981</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M14" t="n">
-        <v>1566.921495383895</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N14" t="n">
-        <v>2111.55476080156</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O14" t="n">
-        <v>2612.501248106873</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P14" t="n">
-        <v>3005.546484356408</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q14" t="n">
-        <v>3252.53434141264</v>
+        <v>2542.250581723849</v>
       </c>
       <c r="R14" t="n">
-        <v>3310.796077475971</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S14" t="n">
-        <v>3200.225838528231</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="T14" t="n">
-        <v>3200.225838528231</v>
+        <v>2353.593687005979</v>
       </c>
       <c r="U14" t="n">
-        <v>2946.694380314937</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="V14" t="n">
-        <v>2615.631492971366</v>
+        <v>1768.949738926588</v>
       </c>
       <c r="W14" t="n">
-        <v>2262.862837701251</v>
+        <v>1416.181083656474</v>
       </c>
       <c r="X14" t="n">
-        <v>2048.584484237572</v>
+        <v>1416.181083656474</v>
       </c>
       <c r="Y14" t="n">
-        <v>2048.584484237572</v>
+        <v>1416.181083656474</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>931.3156003142899</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C15" t="n">
-        <v>756.8625710331629</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D15" t="n">
-        <v>607.9281613719115</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E15" t="n">
-        <v>448.690706366456</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F15" t="n">
-        <v>302.156148393341</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G15" t="n">
-        <v>165.7864839520666</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H15" t="n">
-        <v>75.22119252365746</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I15" t="n">
-        <v>66.21592154951942</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="J15" t="n">
-        <v>159.2853526912741</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K15" t="n">
-        <v>396.5106591183471</v>
+        <v>298.3188265310612</v>
       </c>
       <c r="L15" t="n">
-        <v>761.8119001858313</v>
+        <v>599.4122767260739</v>
       </c>
       <c r="M15" t="n">
-        <v>1207.458086537445</v>
+        <v>1233.591260505112</v>
       </c>
       <c r="N15" t="n">
-        <v>1679.307846295919</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O15" t="n">
-        <v>2088.738397943176</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P15" t="n">
-        <v>2398.00944543187</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q15" t="n">
-        <v>2554.829753957941</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R15" t="n">
-        <v>2554.829753957941</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S15" t="n">
-        <v>2425.269938942937</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T15" t="n">
-        <v>2232.600479990498</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U15" t="n">
-        <v>2004.532201264789</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V15" t="n">
-        <v>1769.380093033046</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W15" t="n">
-        <v>1515.142736304845</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X15" t="n">
-        <v>1307.291236099312</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y15" t="n">
-        <v>1099.530937334358</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>446.8848872066974</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C16" t="n">
-        <v>277.9487042787905</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D16" t="n">
-        <v>214.1290151319125</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E16" t="n">
-        <v>66.21592154951942</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F16" t="n">
-        <v>66.21592154951942</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="G16" t="n">
-        <v>66.21592154951942</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="H16" t="n">
-        <v>66.21592154951942</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="I16" t="n">
-        <v>66.21592154951942</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="J16" t="n">
-        <v>110.9572157501788</v>
+        <v>76.71595955312193</v>
       </c>
       <c r="K16" t="n">
-        <v>314.317742817943</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L16" t="n">
-        <v>630.0756374886842</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M16" t="n">
-        <v>973.3871879897968</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N16" t="n">
-        <v>1313.970173580891</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O16" t="n">
-        <v>1612.537390213391</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P16" t="n">
-        <v>1844.492540894131</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q16" t="n">
-        <v>1921.651183891643</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R16" t="n">
-        <v>1921.651183891643</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S16" t="n">
-        <v>1729.869392788394</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T16" t="n">
-        <v>1508.079263400103</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U16" t="n">
-        <v>1218.976096347562</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V16" t="n">
-        <v>964.2916081416753</v>
+        <v>1092.643294372448</v>
       </c>
       <c r="W16" t="n">
-        <v>674.8744381047147</v>
+        <v>803.2261243354872</v>
       </c>
       <c r="X16" t="n">
-        <v>446.8848872066974</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="Y16" t="n">
-        <v>446.8848872066974</v>
+        <v>665.1026499885492</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2005.586939522201</v>
+        <v>1999.967318387913</v>
       </c>
       <c r="C17" t="n">
-        <v>1636.624422581789</v>
+        <v>1636.340496288257</v>
       </c>
       <c r="D17" t="n">
-        <v>1278.358723975039</v>
+        <v>1278.074797681506</v>
       </c>
       <c r="E17" t="n">
-        <v>892.5704713767946</v>
+        <v>892.2865450832621</v>
       </c>
       <c r="F17" t="n">
-        <v>481.5845665871869</v>
+        <v>481.3006402936546</v>
       </c>
       <c r="G17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.21592154951945</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.21592154951945</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.21592154951945</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912096</v>
+        <v>254.0744928369594</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810562</v>
+        <v>586.3643121319022</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1035.500977900982</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.77673900139</v>
+        <v>1566.921495383895</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2111.554760801561</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939509</v>
+        <v>2612.501248106873</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>3005.546484356408</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052369</v>
+        <v>3252.534341412641</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>3310.796077475972</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136266</v>
+        <v>3310.796077475972</v>
       </c>
       <c r="T17" t="n">
-        <v>3215.315153136266</v>
+        <v>3310.796077475972</v>
       </c>
       <c r="U17" t="n">
-        <v>3215.315153136266</v>
+        <v>3057.264619262678</v>
       </c>
       <c r="V17" t="n">
-        <v>2884.252265792696</v>
+        <v>2726.201731919107</v>
       </c>
       <c r="W17" t="n">
-        <v>2884.252265792696</v>
+        <v>2373.433076648993</v>
       </c>
       <c r="X17" t="n">
-        <v>2510.786507531616</v>
+        <v>1999.967318387913</v>
       </c>
       <c r="Y17" t="n">
-        <v>2120.647175555804</v>
+        <v>1999.967318387913</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811082</v>
+        <v>931.3156003142898</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999812</v>
+        <v>756.8625710331628</v>
       </c>
       <c r="D18" t="n">
-        <v>618.15641553873</v>
+        <v>607.9281613719115</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332745</v>
+        <v>448.6907063664561</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601595</v>
+        <v>302.1561483933411</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>165.7864839520668</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064554</v>
+        <v>75.22119252365748</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218343</v>
+        <v>66.21592154951945</v>
       </c>
       <c r="J18" t="n">
-        <v>160.189385922801</v>
+        <v>159.2853526912741</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031481</v>
+        <v>396.5106591183472</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158135</v>
+        <v>761.8119001858315</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.428070438129</v>
+        <v>1207.458086537445</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1679.30784629592</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410639</v>
+        <v>2088.738397943177</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2398.009445431871</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533341</v>
+        <v>2554.829753957942</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>2554.829753957941</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>2425.269938942937</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.600479990498</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.532201264789</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.380093033046</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.142736304844</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.291236099312</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.530937334358</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>701.1808689801002</v>
+        <v>680.0717849700656</v>
       </c>
       <c r="C19" t="n">
-        <v>532.2446860521933</v>
+        <v>511.1356020421587</v>
       </c>
       <c r="D19" t="n">
-        <v>382.1280466398576</v>
+        <v>361.0189626298229</v>
       </c>
       <c r="E19" t="n">
-        <v>234.2149530574645</v>
+        <v>213.1058690474298</v>
       </c>
       <c r="F19" t="n">
-        <v>234.2149530574645</v>
+        <v>66.21592154951945</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.21592154951945</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.21592154951945</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.21592154951945</v>
       </c>
       <c r="J19" t="n">
-        <v>111.634748879119</v>
+        <v>110.9572157501789</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279954</v>
+        <v>314.3177428179431</v>
       </c>
       <c r="L19" t="n">
-        <v>632.1817302764914</v>
+        <v>630.0756374886843</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760405</v>
+        <v>973.3871879897969</v>
       </c>
       <c r="N19" t="n">
-        <v>1317.747152581905</v>
+        <v>1313.970173580891</v>
       </c>
       <c r="O19" t="n">
-        <v>1617.076751502319</v>
+        <v>1612.537390213392</v>
       </c>
       <c r="P19" t="n">
-        <v>1849.684251935978</v>
+        <v>1844.492540894131</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088493</v>
+        <v>1921.651183891644</v>
       </c>
       <c r="R19" t="n">
-        <v>1927.294548088493</v>
+        <v>1921.651183891644</v>
       </c>
       <c r="S19" t="n">
-        <v>1927.294548088493</v>
+        <v>1921.651183891644</v>
       </c>
       <c r="T19" t="n">
-        <v>1927.294548088493</v>
+        <v>1921.651183891644</v>
       </c>
       <c r="U19" t="n">
-        <v>1638.191681214136</v>
+        <v>1632.548016839103</v>
       </c>
       <c r="V19" t="n">
-        <v>1383.507193008249</v>
+        <v>1599.919549878813</v>
       </c>
       <c r="W19" t="n">
-        <v>1094.090022971289</v>
+        <v>1310.502379841853</v>
       </c>
       <c r="X19" t="n">
-        <v>1094.090022971289</v>
+        <v>1082.512828943835</v>
       </c>
       <c r="Y19" t="n">
-        <v>882.8293338103399</v>
+        <v>861.7202498003053</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>921.7704558796265</v>
+        <v>1278.521293375336</v>
       </c>
       <c r="C20" t="n">
-        <v>764.3583141906979</v>
+        <v>909.5587764349245</v>
       </c>
       <c r="D20" t="n">
-        <v>406.0926155839475</v>
+        <v>909.5587764349245</v>
       </c>
       <c r="E20" t="n">
-        <v>406.0926155839475</v>
+        <v>523.7705238366804</v>
       </c>
       <c r="F20" t="n">
-        <v>406.0926155839475</v>
+        <v>523.7705238366804</v>
       </c>
       <c r="G20" t="n">
-        <v>406.0926155839475</v>
+        <v>108.6858050925453</v>
       </c>
       <c r="H20" t="n">
-        <v>108.5090151927147</v>
+        <v>108.6858050925453</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.21592154951945</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912096</v>
+        <v>254.0744928369595</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810564</v>
+        <v>586.3643121319024</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1035.500977900982</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1566.921495383896</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2111.554760801562</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939509</v>
+        <v>2612.501248106874</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296687</v>
+        <v>3005.546484356409</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052369</v>
+        <v>3252.534341412641</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>3310.796077475972</v>
       </c>
       <c r="S20" t="n">
-        <v>3215.315153136266</v>
+        <v>3200.225838528232</v>
       </c>
       <c r="T20" t="n">
-        <v>3009.337405520489</v>
+        <v>2994.19438516353</v>
       </c>
       <c r="U20" t="n">
-        <v>2755.806928794325</v>
+        <v>2781.494878946464</v>
       </c>
       <c r="V20" t="n">
-        <v>2424.744041450754</v>
+        <v>2781.494878946464</v>
       </c>
       <c r="W20" t="n">
-        <v>2071.97538618064</v>
+        <v>2428.726223676349</v>
       </c>
       <c r="X20" t="n">
-        <v>1698.50962791956</v>
+        <v>2055.26046541527</v>
       </c>
       <c r="Y20" t="n">
-        <v>1308.370295943748</v>
+        <v>1665.121133439458</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>931.3156003142899</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>756.8625710331629</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>607.9281613719115</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>448.690706366456</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>302.156148393341</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>165.7864839520666</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>75.22119252365749</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218343</v>
+        <v>66.21592154951945</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228008</v>
+        <v>159.2853526912741</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>396.5106591183469</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>761.8119001858312</v>
       </c>
       <c r="M21" t="n">
-        <v>1212.428070438129</v>
+        <v>1207.458086537445</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>1679.307846295919</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410638</v>
+        <v>2088.738397943176</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>2398.00944543187</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533341</v>
+        <v>2554.829753957941</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125856</v>
+        <v>2554.829753957941</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619336</v>
+        <v>2425.269938942937</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.600479990498</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.532201264789</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.380093033046</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.142736304845</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.291236099312</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.530937334358</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>680.3679798527295</v>
+        <v>847.7801248620698</v>
       </c>
       <c r="C22" t="n">
-        <v>511.4317969248226</v>
+        <v>678.8439419341629</v>
       </c>
       <c r="D22" t="n">
-        <v>361.3151575124869</v>
+        <v>528.7273025218271</v>
       </c>
       <c r="E22" t="n">
-        <v>213.4020639300938</v>
+        <v>380.814208939434</v>
       </c>
       <c r="F22" t="n">
-        <v>66.51211643218343</v>
+        <v>233.9242614415236</v>
       </c>
       <c r="G22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.21592154951945</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.21592154951945</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.21592154951945</v>
       </c>
       <c r="J22" t="n">
-        <v>111.634748879119</v>
+        <v>110.9572157501788</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279954</v>
+        <v>314.317742817943</v>
       </c>
       <c r="L22" t="n">
-        <v>632.1817302764914</v>
+        <v>630.0756374886842</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760405</v>
+        <v>973.3871879897968</v>
       </c>
       <c r="N22" t="n">
-        <v>1317.747152581905</v>
+        <v>1313.970173580891</v>
       </c>
       <c r="O22" t="n">
-        <v>1617.076751502319</v>
+        <v>1612.537390213391</v>
       </c>
       <c r="P22" t="n">
-        <v>1849.684251935978</v>
+        <v>1844.492540894131</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088493</v>
+        <v>1921.651183891643</v>
       </c>
       <c r="R22" t="n">
-        <v>1927.294548088493</v>
+        <v>1921.651183891643</v>
       </c>
       <c r="S22" t="n">
-        <v>1735.608663915319</v>
+        <v>1921.651183891643</v>
       </c>
       <c r="T22" t="n">
-        <v>1513.842048484845</v>
+        <v>1908.974501055476</v>
       </c>
       <c r="U22" t="n">
-        <v>1513.842048484845</v>
+        <v>1619.871334002935</v>
       </c>
       <c r="V22" t="n">
-        <v>1259.157560278958</v>
+        <v>1365.186845797048</v>
       </c>
       <c r="W22" t="n">
-        <v>969.7403902419976</v>
+        <v>1075.769675760087</v>
       </c>
       <c r="X22" t="n">
-        <v>741.7508393439803</v>
+        <v>847.7801248620698</v>
       </c>
       <c r="Y22" t="n">
-        <v>741.7508393439803</v>
+        <v>847.7801248620698</v>
       </c>
     </row>
     <row r="23">
@@ -5965,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2001.6439622052</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C23" t="n">
-        <v>1632.681445264788</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D23" t="n">
-        <v>1320.35562273557</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E23" t="n">
-        <v>934.5673701373257</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F23" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G23" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H23" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I23" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K23" t="n">
         <v>589.2106210810553</v>
@@ -6028,13 +6028,13 @@
         <v>2741.012457539436</v>
       </c>
       <c r="W23" t="n">
-        <v>2388.243802269321</v>
+        <v>2395.726271498012</v>
       </c>
       <c r="X23" t="n">
-        <v>2388.243802269321</v>
+        <v>2395.726271498012</v>
       </c>
       <c r="Y23" t="n">
-        <v>2388.243802269321</v>
+        <v>2005.586939522201</v>
       </c>
     </row>
     <row r="24">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>66.5121164321834</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="C25" t="n">
-        <v>66.5121164321834</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="D25" t="n">
-        <v>66.5121164321834</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="E25" t="n">
-        <v>66.5121164321834</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="F25" t="n">
-        <v>66.5121164321834</v>
+        <v>84.96544582818348</v>
       </c>
       <c r="G25" t="n">
         <v>66.5121164321834</v>
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1517.887535471215</v>
+        <v>1619.798686923957</v>
       </c>
       <c r="C26" t="n">
-        <v>1148.925018530803</v>
+        <v>1250.836169983545</v>
       </c>
       <c r="D26" t="n">
-        <v>790.6593199240526</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E26" t="n">
-        <v>404.8710673258084</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F26" t="n">
-        <v>66.5121164321834</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G26" t="n">
         <v>66.5121164321834</v>
@@ -6259,19 +6259,19 @@
         <v>3215.315153136265</v>
       </c>
       <c r="U26" t="n">
-        <v>2961.784676410101</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V26" t="n">
-        <v>2630.721789066531</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W26" t="n">
-        <v>2277.953133796416</v>
+        <v>2770.00361722497</v>
       </c>
       <c r="X26" t="n">
-        <v>1904.487375535336</v>
+        <v>2396.53785896389</v>
       </c>
       <c r="Y26" t="n">
-        <v>1904.487375535336</v>
+        <v>2006.398526988078</v>
       </c>
     </row>
     <row r="27">
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>584.5841306576258</v>
+        <v>383.3613929424835</v>
       </c>
       <c r="C28" t="n">
-        <v>511.4317969248226</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="D28" t="n">
-        <v>361.3151575124868</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E28" t="n">
-        <v>213.4020639300938</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F28" t="n">
         <v>66.5121164321834</v>
@@ -6411,25 +6411,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S28" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T28" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U28" t="n">
-        <v>1356.675339798491</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="V28" t="n">
-        <v>1101.990851592604</v>
+        <v>1293.676735765777</v>
       </c>
       <c r="W28" t="n">
-        <v>812.5736815556431</v>
+        <v>1004.259565728817</v>
       </c>
       <c r="X28" t="n">
-        <v>584.5841306576258</v>
+        <v>776.2700148307995</v>
       </c>
       <c r="Y28" t="n">
-        <v>584.5841306576258</v>
+        <v>555.4774356872693</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1904.487375535336</v>
+        <v>1127.748203495403</v>
       </c>
       <c r="C29" t="n">
-        <v>1904.487375535336</v>
+        <v>867.3728191854311</v>
       </c>
       <c r="D29" t="n">
-        <v>1546.221676928586</v>
+        <v>867.3728191854311</v>
       </c>
       <c r="E29" t="n">
-        <v>1190.154071768027</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="F29" t="n">
-        <v>779.1681669784198</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G29" t="n">
-        <v>364.0957168234162</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H29" t="n">
         <v>66.5121164321834</v>
@@ -6463,16 +6463,16 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K29" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N29" t="n">
         <v>2120.555556060171</v>
@@ -6508,7 +6508,7 @@
         <v>1904.487375535336</v>
       </c>
       <c r="Y29" t="n">
-        <v>1904.487375535336</v>
+        <v>1514.348043559525</v>
       </c>
     </row>
     <row r="30">
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>697.9541770656748</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="C31" t="n">
-        <v>529.0179941377679</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="D31" t="n">
-        <v>529.0179941377679</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="E31" t="n">
-        <v>381.1049005553748</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F31" t="n">
         <v>234.2149530574644</v>
@@ -6654,19 +6654,19 @@
         <v>1513.842048484845</v>
       </c>
       <c r="U31" t="n">
-        <v>1513.842048484845</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V31" t="n">
-        <v>1259.157560278958</v>
+        <v>972.4142531359726</v>
       </c>
       <c r="W31" t="n">
-        <v>969.7403902419976</v>
+        <v>682.9970830990119</v>
       </c>
       <c r="X31" t="n">
-        <v>918.7467562092049</v>
+        <v>455.0075322009945</v>
       </c>
       <c r="Y31" t="n">
-        <v>697.9541770656748</v>
+        <v>234.2149530574644</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1636.597933493125</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C32" t="n">
-        <v>1267.635416552713</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D32" t="n">
-        <v>909.3697179459625</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E32" t="n">
-        <v>523.5814653477182</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F32" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G32" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H32" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I32" t="n">
         <v>66.5121164321834</v>
@@ -6703,7 +6703,7 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L32" t="n">
         <v>1040.244834329464</v>
@@ -6742,10 +6742,10 @@
         <v>2071.975386180638</v>
       </c>
       <c r="X32" t="n">
-        <v>1698.509627919559</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="Y32" t="n">
-        <v>1698.509627919559</v>
+        <v>2071.975386180638</v>
       </c>
     </row>
     <row r="33">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>772.5608581015648</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="C34" t="n">
-        <v>772.5608581015648</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="D34" t="n">
-        <v>772.5608581015648</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E34" t="n">
-        <v>624.6477645191717</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F34" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G34" t="n">
-        <v>310.0549803959802</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H34" t="n">
-        <v>163.837793613838</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I34" t="n">
         <v>66.5121164321834</v>
@@ -6885,25 +6885,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S34" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T34" t="n">
-        <v>1705.527932658019</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U34" t="n">
-        <v>1705.527932658019</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V34" t="n">
-        <v>1450.843444452132</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W34" t="n">
-        <v>1161.426274415171</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X34" t="n">
-        <v>1161.426274415171</v>
+        <v>601.8974796989049</v>
       </c>
       <c r="Y34" t="n">
-        <v>940.6336952716412</v>
+        <v>381.1049005553748</v>
       </c>
     </row>
     <row r="35">
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1664.678443125551</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C35" t="n">
-        <v>1295.71592618514</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D35" t="n">
-        <v>937.4502275783891</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E35" t="n">
-        <v>551.6619749801448</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F35" t="n">
         <v>523.5814653477182</v>
@@ -6934,19 +6934,19 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I35" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K35" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
         <v>2120.555556060171</v>
@@ -6961,28 +6961,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T35" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U35" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V35" t="n">
-        <v>2424.744041450753</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W35" t="n">
-        <v>2424.744041450753</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="X35" t="n">
-        <v>2051.278283189673</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y35" t="n">
-        <v>2051.278283189673</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="36">
@@ -7013,7 +7013,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
         <v>160.1893859228007</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>826.5851666348717</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="C37" t="n">
-        <v>657.6489837069648</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="D37" t="n">
-        <v>507.5323442946291</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="E37" t="n">
-        <v>359.619250712236</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="F37" t="n">
-        <v>212.7293032143256</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="G37" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H37" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I37" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
         <v>111.634748879119</v>
@@ -7122,25 +7122,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T37" t="n">
-        <v>1705.527932658019</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U37" t="n">
-        <v>1416.425065783662</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V37" t="n">
-        <v>1161.740577577775</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W37" t="n">
-        <v>872.3234075408147</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X37" t="n">
-        <v>872.3234075408147</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y37" t="n">
-        <v>872.3234075408147</v>
+        <v>231.8553933260938</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1594.601034732593</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C38" t="n">
-        <v>1225.638517792182</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D38" t="n">
-        <v>867.3728191854311</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E38" t="n">
-        <v>481.5845665871869</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F38" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G38" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H38" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T38" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U38" t="n">
-        <v>3055.171749386212</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V38" t="n">
-        <v>2724.108862042641</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W38" t="n">
-        <v>2371.340206772526</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="X38" t="n">
-        <v>2371.340206772526</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y38" t="n">
-        <v>1981.200874796715</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="39">
@@ -7244,16 +7244,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K39" t="n">
         <v>398.4535849031479</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>231.8553933260938</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C40" t="n">
-        <v>231.8553933260938</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D40" t="n">
-        <v>214.4252100145765</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E40" t="n">
-        <v>66.5121164321834</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F40" t="n">
-        <v>66.5121164321834</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G40" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H40" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I40" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J40" t="n">
         <v>111.634748879119</v>
@@ -7356,28 +7356,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S40" t="n">
-        <v>1735.608663915319</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T40" t="n">
-        <v>1513.842048484845</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U40" t="n">
-        <v>1224.739181610489</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="V40" t="n">
-        <v>970.0546934046018</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="W40" t="n">
-        <v>680.6375233676413</v>
+        <v>1258.944053934704</v>
       </c>
       <c r="X40" t="n">
-        <v>452.6479724696239</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y40" t="n">
-        <v>231.8553933260938</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>921.7704558796252</v>
+        <v>1661.795585684488</v>
       </c>
       <c r="C41" t="n">
-        <v>863.2862738200351</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D41" t="n">
-        <v>863.2862738200351</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E41" t="n">
-        <v>477.498021221791</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F41" t="n">
-        <v>66.5121164321834</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G41" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H41" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I41" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T41" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U41" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V41" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W41" t="n">
-        <v>2071.975386180638</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X41" t="n">
-        <v>1698.509627919559</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y41" t="n">
-        <v>1308.370295943747</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="42">
@@ -7466,70 +7466,70 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I42" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T42" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U42" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X42" t="n">
         <v>1317.519490266131</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>231.8553933260938</v>
+        <v>617.5020034330385</v>
       </c>
       <c r="C43" t="n">
-        <v>231.8553933260938</v>
+        <v>617.5020034330385</v>
       </c>
       <c r="D43" t="n">
-        <v>231.8553933260938</v>
+        <v>467.3853640207027</v>
       </c>
       <c r="E43" t="n">
-        <v>83.94229974370072</v>
+        <v>319.4722704383096</v>
       </c>
       <c r="F43" t="n">
-        <v>66.5121164321834</v>
+        <v>172.5823229403992</v>
       </c>
       <c r="G43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J43" t="n">
         <v>111.634748879119</v>
@@ -7593,28 +7593,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S43" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T43" t="n">
-        <v>1513.842048484845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U43" t="n">
-        <v>1224.739181610489</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V43" t="n">
-        <v>970.0546934046018</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W43" t="n">
-        <v>680.6375233676413</v>
+        <v>845.4915543310558</v>
       </c>
       <c r="X43" t="n">
-        <v>452.6479724696239</v>
+        <v>617.5020034330385</v>
       </c>
       <c r="Y43" t="n">
-        <v>231.8553933260938</v>
+        <v>617.5020034330385</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1221.551972426786</v>
+        <v>1808.800296392465</v>
       </c>
       <c r="C44" t="n">
-        <v>1221.551972426786</v>
+        <v>1439.837779452053</v>
       </c>
       <c r="D44" t="n">
-        <v>863.2862738200351</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E44" t="n">
-        <v>477.498021221791</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F44" t="n">
-        <v>66.5121164321834</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G44" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H44" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M44" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O44" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T44" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U44" t="n">
-        <v>2755.806928794324</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V44" t="n">
-        <v>2424.744041450753</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W44" t="n">
-        <v>2071.975386180638</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="X44" t="n">
-        <v>1698.509627919559</v>
+        <v>1808.800296392465</v>
       </c>
       <c r="Y44" t="n">
-        <v>1308.370295943747</v>
+        <v>1808.800296392465</v>
       </c>
     </row>
     <row r="45">
@@ -7718,22 +7718,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>470.2719172712683</v>
+        <v>453.6220087565674</v>
       </c>
       <c r="C46" t="n">
-        <v>301.3357343433614</v>
+        <v>453.6220087565674</v>
       </c>
       <c r="D46" t="n">
-        <v>151.2190949310257</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="E46" t="n">
-        <v>66.5121164321834</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F46" t="n">
-        <v>66.5121164321834</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J46" t="n">
         <v>111.634748879119</v>
@@ -7830,28 +7830,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S46" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T46" t="n">
-        <v>1424.011591242373</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U46" t="n">
-        <v>1424.011591242373</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V46" t="n">
-        <v>1169.327103036486</v>
+        <v>1191.821308835076</v>
       </c>
       <c r="W46" t="n">
-        <v>879.9099329995254</v>
+        <v>902.4041387981149</v>
       </c>
       <c r="X46" t="n">
-        <v>651.920382101508</v>
+        <v>674.4145879000976</v>
       </c>
       <c r="Y46" t="n">
-        <v>651.920382101508</v>
+        <v>453.6220087565674</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8066,10 +8066,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>210.4257539463595</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>195.8699829942121</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8078,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>97.32166909127237</v>
       </c>
       <c r="R3" t="n">
-        <v>31.66886087721431</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>30.36925650589403</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,10 +8312,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8476,7 +8476,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9556134883064615</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154985</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8768,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>193.3273467878353</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>240.446544241744</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9011,13 +9011,13 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>6.454437538930392</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>273.6534998179983</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.546395060290962</v>
+        <v>20.93778120154992</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>0.5463950602895555</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>0.546395060290962</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -22546,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>150.4546561581541</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>101.5590117695014</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22561,13 +22561,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.8707348436268</v>
+        <v>412.83417464571</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22597,25 +22597,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>314.0974391264346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>85.52708871590687</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="3">
@@ -22625,28 +22625,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>63.39144972487516</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22676,13 +22676,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>137.5750138932992</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -22691,7 +22691,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>108.8330625333873</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -22707,7 +22707,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>14.26779028895143</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -22716,19 +22716,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.4515011109318</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>148.5398113612452</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>109.1541654470835</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22752,28 +22752,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>64.22960944028509</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>221.3678187343026</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>22.80911833508486</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22783,28 +22783,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>184.6513978323788</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>320.756970216382</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22837,19 +22837,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862876</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>85.52708871590687</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -22862,28 +22862,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22922,16 +22922,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>47.07268025640775</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22956,13 +22956,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22989,22 +22989,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>74.5172465988729</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>89.30631637297319</v>
+        <v>22.54475050117134</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>22.80911833508486</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23020,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>90.96916161917682</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>314.7988413123834</v>
       </c>
       <c r="G8" t="n">
-        <v>197.8581429810514</v>
+        <v>412.83417464571</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247044</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,25 +23071,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23099,25 +23099,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -23147,13 +23147,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>85.45272171029912</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -23162,7 +23162,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -23178,10 +23178,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -23193,16 +23193,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23226,28 +23226,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>6.393166134600705</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>22.80911833508486</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>115.2459207102713</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>120.5462365085839</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23272,10 +23272,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I11" t="n">
         <v>65.70991267247049</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U11" t="n">
-        <v>121.2738559222719</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>11.70079325185205</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23424,13 +23424,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>126.6925181959932</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H13" t="n">
         <v>147.2515091551288</v>
@@ -23466,7 +23466,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23503,19 +23503,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>162.1490521193202</v>
       </c>
       <c r="H14" t="n">
-        <v>294.7321536188796</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>65.70991267247052</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9711388310543</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23560,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>157.5955307494262</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>85.43398076280316</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0312564930842</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H16" t="n">
-        <v>144.803454668018</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I16" t="n">
-        <v>96.51626366671984</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>89.17712508496182</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>88.96741578556853</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>268.8242079902135</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>5.282337892347925</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>294.7321536188796</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>42.04518470759555</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.4645365582629</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9711388310543</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23901,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0312564930842</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>144.803454668018</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>96.51626366671982</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>89.17712508496179</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>189.8639731922165</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>219.5722280944081</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>219.8354610331417</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>9.436571082755592</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23971,22 +23971,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>209.4348714989682</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.7321536188796</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24025,10 +24025,10 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>40.42363247626554</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>119.062949285599</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>144.803454668018</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>96.51626366671984</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>89.17712508496182</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.8639731922165</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>207.0223120866024</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>45.48047731675723</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24226,7 +24226,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24268,13 +24268,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>7.407644536404064</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>16.142136056966</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24375,10 +24375,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>147.7570121569881</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24451,13 +24451,13 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>71.90068435702273</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>294.6077643873205</v>
@@ -24499,19 +24499,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>236.1348066353661</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>9.437097864599281</v>
       </c>
       <c r="C28" t="n">
-        <v>94.82601070315269</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>107.5012613041354</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>29.42344096330862</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24840,16 +24840,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24894,16 +24894,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>2.335964134057065</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>175.2259576965724</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>321.4412641813109</v>
+        <v>317.0092794716275</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24928,7 +24928,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24937,7 +24937,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24982,7 +24982,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>13.43987138356172</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25083,7 +25083,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,13 +25125,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>147.7570121569882</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25165,7 +25165,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>379.0763412056091</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25207,22 +25207,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>289.9110058020842</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>134.5511216850537</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>2.335964134056951</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -25362,7 +25362,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25402,7 +25402,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25411,7 +25411,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25447,16 +25447,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>92.45320224634904</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>331.8898480104172</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>131.3595915398102</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
@@ -25596,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>217.3617838409428</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>346.3869398507591</v>
       </c>
       <c r="C41" t="n">
-        <v>307.3735515320134</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25791,16 +25791,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>128.1651665445291</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>61.0163038158946</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>296.7837013816889</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>236.3957064713644</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25879,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26022,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>77.83645052266962</v>
       </c>
       <c r="E46" t="n">
-        <v>62.57405393271532</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>723694.6652742501</v>
+        <v>529061.7784942136</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>792269.0249116811</v>
+        <v>529061.7784942137</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>792269.0249116813</v>
+        <v>529061.7784942135</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>792269.0249116812</v>
+        <v>792269.0249116811</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>874022.1789908434</v>
+        <v>792269.0249116811</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>875642.0420259713</v>
+        <v>874022.1789908435</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>875642.0420259713</v>
+        <v>874022.1789908435</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>875642.0420259712</v>
+        <v>875642.0420259715</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>875642.0420259712</v>
+        <v>875642.0420259715</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>875642.0420259713</v>
+        <v>875642.0420259715</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>875642.0420259712</v>
+        <v>875642.0420259715</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>875642.0420259712</v>
+        <v>875642.0420259715</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>265569.8802231801</v>
+        <v>193768.2521372568</v>
       </c>
       <c r="C2" t="n">
-        <v>290673.0489695931</v>
+        <v>193768.2521372568</v>
       </c>
       <c r="D2" t="n">
-        <v>290673.0489695931</v>
+        <v>193768.2521372568</v>
       </c>
       <c r="E2" t="n">
         <v>290673.0489695932</v>
       </c>
       <c r="F2" t="n">
+        <v>290673.0489695932</v>
+      </c>
+      <c r="G2" t="n">
+        <v>323301.6211378982</v>
+      </c>
+      <c r="H2" t="n">
         <v>323301.6211378981</v>
-      </c>
-      <c r="G2" t="n">
-        <v>323947.2440223746</v>
-      </c>
-      <c r="H2" t="n">
-        <v>323947.2440223746</v>
       </c>
       <c r="I2" t="n">
         <v>323947.2440223744</v>
       </c>
       <c r="J2" t="n">
-        <v>323947.2440223745</v>
+        <v>323947.2440223744</v>
       </c>
       <c r="K2" t="n">
-        <v>323947.2440223746</v>
+        <v>323947.2440223744</v>
       </c>
       <c r="L2" t="n">
-        <v>323947.2440223745</v>
+        <v>323947.2440223744</v>
       </c>
       <c r="M2" t="n">
-        <v>323947.2440223745</v>
+        <v>323947.2440223744</v>
       </c>
       <c r="N2" t="n">
         <v>323947.2440223745</v>
       </c>
       <c r="O2" t="n">
-        <v>323947.2440223744</v>
+        <v>323947.2440223746</v>
       </c>
       <c r="P2" t="n">
-        <v>323947.2440223744</v>
+        <v>323947.2440223745</v>
       </c>
     </row>
     <row r="3">
@@ -26365,46 +26365,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1004321.885230093</v>
+        <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
-        <v>104983.4505300438</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>369622.2714301429</v>
       </c>
       <c r="F3" t="n">
-        <v>174306.5337859697</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3363.798545983959</v>
+        <v>170000.0824882073</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3258.831101311581</v>
       </c>
       <c r="J3" t="n">
-        <v>141841.1257376602</v>
+        <v>68999.15441911407</v>
       </c>
       <c r="K3" t="n">
-        <v>25342.99488522363</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>93917.74874676278</v>
       </c>
       <c r="N3" t="n">
-        <v>45829.31654522309</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>890.9949338496893</v>
+        <v>45029.21628046115</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11294.48931476123</v>
+        <v>9175.676332186658</v>
       </c>
       <c r="C4" t="n">
-        <v>12563.1824149934</v>
+        <v>9175.676332186658</v>
       </c>
       <c r="D4" t="n">
-        <v>12563.1824149934</v>
+        <v>9175.676332186658</v>
       </c>
       <c r="E4" t="n">
         <v>12563.18241499341</v>
       </c>
       <c r="F4" t="n">
+        <v>12563.18241499341</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6831.225347237258</v>
+      </c>
+      <c r="H4" t="n">
         <v>6831.225347237272</v>
-      </c>
-      <c r="G4" t="n">
-        <v>6720.683277029938</v>
-      </c>
-      <c r="H4" t="n">
-        <v>6720.683277029938</v>
       </c>
       <c r="I4" t="n">
         <v>6720.683277029938</v>
@@ -26469,25 +26469,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>85199.08185587224</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984473</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="E5" t="n">
         <v>59310.17243984471</v>
       </c>
       <c r="F5" t="n">
-        <v>74015.36825377261</v>
+        <v>59310.1724398447</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.3405613933</v>
+        <v>74015.36825377263</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.3405613933</v>
+        <v>74015.36825377263</v>
       </c>
       <c r="I5" t="n">
         <v>74306.34056139328</v>
@@ -26502,16 +26502,16 @@
         <v>74306.34056139328</v>
       </c>
       <c r="M5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="N5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-841794.2583071444</v>
+        <v>-559575.9795090643</v>
       </c>
       <c r="C6" t="n">
-        <v>74961.18086281953</v>
+        <v>120512.0010821288</v>
       </c>
       <c r="D6" t="n">
-        <v>179944.6313928633</v>
+        <v>120512.0010821289</v>
       </c>
       <c r="E6" t="n">
-        <v>213572.2313928637</v>
+        <v>-151345.323587577</v>
       </c>
       <c r="F6" t="n">
-        <v>64638.32430104291</v>
+        <v>218276.9478425662</v>
       </c>
       <c r="G6" t="n">
-        <v>236080.2323399063</v>
+        <v>72103.92810369343</v>
       </c>
       <c r="H6" t="n">
-        <v>239444.0308858903</v>
+        <v>242104.0105919009</v>
       </c>
       <c r="I6" t="n">
-        <v>239444.0308858901</v>
+        <v>239313.7701528335</v>
       </c>
       <c r="J6" t="n">
-        <v>97602.90514823</v>
+        <v>173573.446835031</v>
       </c>
       <c r="K6" t="n">
-        <v>214101.0360006666</v>
+        <v>242572.6012541451</v>
       </c>
       <c r="L6" t="n">
-        <v>239444.0308858902</v>
+        <v>242572.6012541451</v>
       </c>
       <c r="M6" t="n">
-        <v>239444.0308858902</v>
+        <v>148654.8525073823</v>
       </c>
       <c r="N6" t="n">
-        <v>193614.7143406671</v>
+        <v>242572.6012541451</v>
       </c>
       <c r="O6" t="n">
-        <v>238553.0359520405</v>
+        <v>197543.384973684</v>
       </c>
       <c r="P6" t="n">
-        <v>239444.0308858902</v>
+        <v>242572.6012541451</v>
       </c>
     </row>
   </sheetData>
@@ -26737,25 +26737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>853.7106645376841</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175394</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="E3" t="n">
         <v>934.0648921175392</v>
       </c>
       <c r="F3" t="n">
+        <v>934.064892117539</v>
+      </c>
+      <c r="G3" t="n">
         <v>1086.755407162287</v>
       </c>
-      <c r="G3" t="n">
-        <v>1089.776700593298</v>
-      </c>
       <c r="H3" t="n">
-        <v>1089.776700593298</v>
+        <v>1086.755407162287</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>542.1149567261631</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="E4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="F4" t="n">
-        <v>827.6990193689928</v>
+        <v>640.5848321000386</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022929</v>
+        <v>827.699019368993</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022929</v>
+        <v>827.699019368993</v>
       </c>
       <c r="I4" t="n">
         <v>831.4014554022925</v>
@@ -26822,16 +26822,16 @@
         <v>831.4014554022925</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
     </row>
   </sheetData>
@@ -26959,28 +26959,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>853.7106645376841</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>80.35422757985521</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>320.009878348061</v>
       </c>
       <c r="F3" t="n">
-        <v>152.6905150447475</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>152.6905150447479</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>3.0212934310116</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,46 +27011,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>542.1149567261631</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>98.46987537387565</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>376.8709520985327</v>
       </c>
       <c r="F4" t="n">
-        <v>187.114187268954</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>3.702436033300046</v>
+        <v>187.1141872689544</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>3.702436033299477</v>
       </c>
       <c r="J4" t="n">
-        <v>542.1149567261631</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>98.46987537387565</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>376.8709520985328</v>
       </c>
       <c r="N4" t="n">
-        <v>187.114187268954</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>3.702436033300046</v>
+        <v>187.1141872689544</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>542.1149567261631</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>98.46987537387565</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>376.8709520985327</v>
       </c>
       <c r="N4" t="n">
-        <v>187.114187268954</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>3.702436033300046</v>
+        <v>187.1141872689544</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.432002671508275</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H2" t="n">
-        <v>35.14799735958413</v>
+        <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>132.3122829933229</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J2" t="n">
-        <v>291.2869367409257</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>436.5636098258711</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
-        <v>541.5957615840426</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>602.6296390934779</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N2" t="n">
-        <v>612.3808166839008</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>578.2538401190903</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P2" t="n">
-        <v>493.5262741662298</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q2" t="n">
-        <v>370.6176784928395</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R2" t="n">
-        <v>215.5855378141319</v>
+        <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>78.20676087699491</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T2" t="n">
-        <v>15.02359169452748</v>
+        <v>10.8061339609081</v>
       </c>
       <c r="U2" t="n">
-        <v>0.274560213720662</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.836283316175396</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H3" t="n">
-        <v>17.73463097464133</v>
+        <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>63.22291242095115</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J3" t="n">
-        <v>173.4885040076062</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
-        <v>296.5194861913577</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>398.7070419616798</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
-        <v>465.2723121730378</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N3" t="n">
-        <v>477.5866858152843</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>436.8985133884505</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>350.6495746475632</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q3" t="n">
-        <v>234.3999545349506</v>
+        <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>114.0106430867496</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S3" t="n">
-        <v>34.10815721053859</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>7.401510384057843</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1208081129062761</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.539478247526971</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>13.68736114619435</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I4" t="n">
-        <v>46.29630948017475</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>108.8411121001569</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K4" t="n">
-        <v>178.8593818490426</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
-        <v>228.8784296368736</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M4" t="n">
-        <v>241.3202129282506</v>
+        <v>173.576239384051</v>
       </c>
       <c r="N4" t="n">
-        <v>235.5821576420139</v>
+        <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>217.5982526595396</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
-        <v>186.1928964099892</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>128.9103103451903</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R4" t="n">
-        <v>69.22054011153089</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S4" t="n">
-        <v>26.82890727735639</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>6.577770693978875</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U4" t="n">
-        <v>0.08397154077419852</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>10.8061339609081</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J6" t="n">
-        <v>189.8178475575841</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654579</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>14.97566335231072</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>119.0856174753787</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227908</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>173.576239384051</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
-        <v>203.7180217169137</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.0437987097484</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>25.28116948649916</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979355</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857144</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730006</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342226</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190646</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>155.0658623465206</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>10.8061339609081</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347161</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>12.75612396528671</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575841</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178439</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177245</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405676</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>168.5986520825179</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997903</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000174</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654579</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231072</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335773</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753787</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K10" t="n">
-        <v>195.694251168232</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227908</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849628</v>
+        <v>173.576239384051</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>169.4489843734694</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169137</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097484</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759588</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069563</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.36886595844135</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H14" t="n">
-        <v>44.74264849688749</v>
+        <v>38.45624955336177</v>
       </c>
       <c r="I14" t="n">
-        <v>168.4307048628103</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J14" t="n">
-        <v>370.8020371402619</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K14" t="n">
-        <v>555.7361331610844</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L14" t="n">
-        <v>689.439814736734</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M14" t="n">
-        <v>767.1346347251653</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N14" t="n">
-        <v>779.5476751295869</v>
+        <v>670.0202366342222</v>
       </c>
       <c r="O14" t="n">
-        <v>736.1047642553357</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P14" t="n">
-        <v>628.2483859063148</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q14" t="n">
-        <v>471.7883737696337</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R14" t="n">
-        <v>274.4357762619417</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S14" t="n">
-        <v>99.55553302798236</v>
+        <v>85.56785418745095</v>
       </c>
       <c r="T14" t="n">
-        <v>19.12471073307702</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U14" t="n">
-        <v>0.349509276675308</v>
+        <v>0.3004027793744846</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.337549366349069</v>
+        <v>2.009120711347159</v>
       </c>
       <c r="H15" t="n">
-        <v>22.57580572237128</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I15" t="n">
-        <v>80.48141458701842</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J15" t="n">
-        <v>220.8471530724794</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K15" t="n">
-        <v>377.4629606178671</v>
+        <v>324.4289352178437</v>
       </c>
       <c r="L15" t="n">
-        <v>507.5455323732925</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M15" t="n">
-        <v>592.2816969034462</v>
+        <v>509.0653662040587</v>
       </c>
       <c r="N15" t="n">
-        <v>607.9576310312872</v>
+        <v>522.538811676207</v>
       </c>
       <c r="O15" t="n">
-        <v>556.1624582295525</v>
+        <v>478.0209264405673</v>
       </c>
       <c r="P15" t="n">
-        <v>446.369404877657</v>
+        <v>383.6539365378624</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.3861261325584</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R15" t="n">
-        <v>145.133108903673</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S15" t="n">
-        <v>43.41895423898379</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T15" t="n">
-        <v>9.421964331906992</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1537861425229652</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.959722865374615</v>
+        <v>1.684379313654578</v>
       </c>
       <c r="H16" t="n">
-        <v>17.42371783942159</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I16" t="n">
-        <v>58.93421126053845</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J16" t="n">
-        <v>138.5524065819853</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K16" t="n">
-        <v>227.6841656317052</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L16" t="n">
-        <v>291.3573430939678</v>
+        <v>250.4212663227907</v>
       </c>
       <c r="M16" t="n">
-        <v>307.1954669786771</v>
+        <v>264.0341136849626</v>
       </c>
       <c r="N16" t="n">
-        <v>299.8910453895538</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O16" t="n">
-        <v>276.9979191894957</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P16" t="n">
-        <v>237.0195727358534</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.1000664815053</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R16" t="n">
-        <v>88.11626629220767</v>
+        <v>75.73581895759584</v>
       </c>
       <c r="S16" t="n">
-        <v>34.15262484475578</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T16" t="n">
-        <v>8.373361333873353</v>
+        <v>7.19689343106956</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1068939744749791</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.368865958441351</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.7426484968875</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.4307048628104</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>370.802037140262</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>555.7361331610845</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>689.4398147367341</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>767.1346347251655</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>779.547675129587</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>736.1047642553358</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>628.2483859063149</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>471.7883737696338</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>274.4357762619418</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.55553302798239</v>
       </c>
       <c r="T17" t="n">
-        <v>19.1778794245112</v>
+        <v>19.12471073307702</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.349509276675308</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.33754936634907</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798531</v>
+        <v>22.57580572237129</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.48141458701843</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>220.8471530724795</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>377.4629606178672</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>507.5455323732926</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>592.2816969034463</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>607.9576310312873</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>556.1624582295526</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>446.3694048776571</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>298.3861261325585</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905541</v>
+        <v>145.133108903673</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.41895423898379</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.421964331906993</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1537861425229652</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.959722865374615</v>
       </c>
       <c r="H19" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4237178394216</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>58.93421126053845</v>
       </c>
       <c r="J19" t="n">
-        <v>138.937596729739</v>
+        <v>138.5524065819853</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>227.6841656317053</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>291.3573430939679</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>307.1954669786772</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>299.8910453895539</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>276.9979191894957</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>237.0195727358534</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.556281789588</v>
+        <v>164.1000664815053</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.1162662922077</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.15262484475579</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.373361333873355</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1068939744749792</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.36886595844135</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.74264849688749</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.4307048628103</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953988</v>
+        <v>370.8020371402619</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>555.7361331610844</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>689.439814736734</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>767.1346347251653</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>779.5476751295869</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>736.1047642553357</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>628.2483859063148</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>471.7883737696337</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>274.4357762619417</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.55553302798236</v>
       </c>
       <c r="T20" t="n">
-        <v>19.1778794245112</v>
+        <v>19.12471073307702</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.349509276675308</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502566</v>
+        <v>2.337549366349069</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798531</v>
+        <v>22.57580572237128</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.48141458701842</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>220.8471530724794</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>377.4629606178671</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>507.5455323732925</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>592.2816969034462</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>607.9576310312872</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>556.1624582295525</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>446.369404877657</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>298.3861261325584</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905541</v>
+        <v>145.133108903673</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.41895423898379</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.421964331906992</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1537861425229652</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.959722865374615</v>
       </c>
       <c r="H22" t="n">
-        <v>17.47215759311879</v>
+        <v>17.42371783942159</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>58.93421126053845</v>
       </c>
       <c r="J22" t="n">
-        <v>138.937596729739</v>
+        <v>138.5524065819853</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702024</v>
+        <v>227.6841656317052</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>291.3573430939678</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316432</v>
+        <v>307.1954669786771</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>299.8910453895538</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>276.9979191894957</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802169</v>
+        <v>237.0195727358534</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.556281789588</v>
+        <v>164.1000664815053</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.11626629220767</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.15262484475578</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.373361333873353</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1068939744749791</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33037,7 +33037,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
         <v>557.708647897025</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34450,7 +34450,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
         <v>508.9565619138796</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>110.2410322142395</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K2" t="n">
-        <v>216.4737587808906</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L2" t="n">
-        <v>305.8293466140554</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>372.2834058662052</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N2" t="n">
-        <v>382.9677530873099</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>348.1556286974036</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P2" t="n">
-        <v>262.2932784109602</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>148.31198861839</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>46.6508773409395</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>158.6780472169987</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L3" t="n">
-        <v>260.1526621818056</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
-        <v>533.564032197379</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
-        <v>542.1149567261631</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
-        <v>294.302268944006</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
-        <v>216.6751672332329</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>94.41818044892906</v>
+        <v>125.9385470877688</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.48193198348409</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>156.5898900231598</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L4" t="n">
-        <v>256.4684548971897</v>
+        <v>192.2171678043497</v>
       </c>
       <c r="M4" t="n">
-        <v>280.9040898900911</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N4" t="n">
-        <v>279.7143300212425</v>
+        <v>213.581156752698</v>
       </c>
       <c r="O4" t="n">
-        <v>242.1833805735793</v>
+        <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>183.4714556748827</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>42.74826709349593</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>93.34947739681148</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>215.5616691250133</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>192.2171678043497</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>213.581156752698</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>181.0986910958077</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818072</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407339</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457279</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376316</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637951</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R8" t="n">
-        <v>20.2916633093991</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>63.93583437922391</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434849</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378503</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634695</v>
+        <v>215.5616691250133</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870597</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>192.2171678043497</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468034</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>213.581156752698</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>181.0986910958077</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818072</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35488,13 +35488,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K12" t="n">
-        <v>379.9148430313201</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L12" t="n">
-        <v>297.6803606378502</v>
+        <v>538.1269048795942</v>
       </c>
       <c r="M12" t="n">
         <v>366.9313322820405</v>
@@ -35509,10 +35509,10 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q12" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>189.7561326135756</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K14" t="n">
-        <v>335.6462821161038</v>
+        <v>257.5646495407336</v>
       </c>
       <c r="L14" t="n">
-        <v>453.6733997667467</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M14" t="n">
-        <v>536.7884014978926</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N14" t="n">
-        <v>550.1346115329959</v>
+        <v>440.6071730376313</v>
       </c>
       <c r="O14" t="n">
-        <v>506.0065528336489</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P14" t="n">
-        <v>397.0153901510452</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q14" t="n">
-        <v>249.4826838951842</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R14" t="n">
-        <v>58.8502384478096</v>
+        <v>20.29166330939898</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.00952640581275</v>
+        <v>62.98022089091737</v>
       </c>
       <c r="K15" t="n">
-        <v>239.6215216435081</v>
+        <v>186.5874962434847</v>
       </c>
       <c r="L15" t="n">
-        <v>368.9911525934183</v>
+        <v>304.1347981767805</v>
       </c>
       <c r="M15" t="n">
-        <v>450.1476629814279</v>
+        <v>640.5848321000386</v>
       </c>
       <c r="N15" t="n">
-        <v>476.6159189479539</v>
+        <v>640.5848321000386</v>
       </c>
       <c r="O15" t="n">
-        <v>413.5662137851081</v>
+        <v>335.4246819961229</v>
       </c>
       <c r="P15" t="n">
-        <v>312.3949974633268</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q15" t="n">
-        <v>158.4043520465369</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19322646531251</v>
+        <v>25.72643735870591</v>
       </c>
       <c r="K16" t="n">
-        <v>205.4146738058224</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L16" t="n">
-        <v>318.947368354284</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M16" t="n">
-        <v>346.7793439405177</v>
+        <v>303.6179906468032</v>
       </c>
       <c r="N16" t="n">
-        <v>344.0232177687824</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O16" t="n">
-        <v>301.5830471035354</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P16" t="n">
-        <v>234.2981320007468</v>
+        <v>200.9965809818071</v>
       </c>
       <c r="Q16" t="n">
-        <v>77.9380232298109</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>189.7561326135757</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>335.6462821161039</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>453.6733997667469</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>536.7884014978928</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>550.1346115329961</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>506.006552833649</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>397.0153901510453</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>249.4826838951843</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>58.85023844780966</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.00952640581281</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>239.6215216435082</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>368.9911525934185</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>450.147662981428</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>476.615918947954</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>413.5662137851082</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>312.3949974633269</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>158.404352046537</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>-1.378022275413528e-12</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.19322646531253</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>205.4146738058224</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701981</v>
+        <v>318.947368354284</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934838</v>
+        <v>346.7793439405178</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675401</v>
+        <v>344.0232177687825</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>301.5830471035354</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451104</v>
+        <v>234.2981320007469</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>77.93802322981092</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>189.7561326135756</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>335.6462821161038</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>453.6733997667467</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>536.7884014978926</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>550.1346115329959</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>506.0065528336489</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>397.0153901510452</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>249.4826838951842</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>58.8502384478096</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.00952640581275</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>239.6215216435081</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>368.9911525934183</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>450.1476629814279</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>476.6159189479539</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>413.5662137851081</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>312.3949974633268</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>158.4043520465369</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.19322646531251</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>205.4146738058224</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701981</v>
+        <v>318.947368354284</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934838</v>
+        <v>346.7793439405177</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675401</v>
+        <v>344.0232177687824</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>301.5830471035354</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451104</v>
+        <v>234.2981320007468</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>77.9380232298109</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36685,7 +36685,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
         <v>415.1124034525806</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
         <v>370.4021821340054</v>
